--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319727.233773709</v>
+        <v>2324666.496622741</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526821.572733131</v>
+        <v>534879.410323448</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.6621898072149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>46.80807769362095</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>330.2061861843474</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>68.14130809906142</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>276.7833064274187</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>114.2199352296385</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>208.997829469025</v>
       </c>
       <c r="U10" t="n">
-        <v>83.59830597394847</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>129.8655029483657</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>21.64243440663924</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385012</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>258.2932742585199</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.0053956628069</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>263.0596061408513</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>225.1809026611657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.4314237113287</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>32.89657674137995</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2532,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0921306777564</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>13.0040753859172</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.35146980185854</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>85.4229116799582</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>215.9495548965046</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>27.28566982380552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.0066065949742</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3160057778002</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>408.3534888373885</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.3160057778002</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,31 +4731,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
         <v>598.0446400632119</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1860.708406770828</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.745889830416</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.480191223666</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>747.6919386254212</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>336.7060338358137</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>322.7826297744046</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834949</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834949</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273831</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,22 +5059,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1524.052509796274</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>841.7907383782454</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>841.7907383782454</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X13" t="n">
-        <v>1244.231782352015</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y13" t="n">
-        <v>1023.439203208485</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626377</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.013973327074</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>983.329485121187</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>693.9123150842264</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.1301850426789</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,10 +5591,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
@@ -5603,10 +5603,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N18" t="n">
-        <v>2234.893232091767</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>599.3997404112772</v>
+        <v>599.399740411277</v>
       </c>
       <c r="L21" t="n">
-        <v>829.3628462796264</v>
+        <v>829.3628462796262</v>
       </c>
       <c r="M21" t="n">
         <v>1149.698165809328</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706318</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3977182706318</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706318</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706318</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5989,31 +5989,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6180,10 +6180,10 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N27" t="n">
         <v>1128.069692924718</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.400123145958</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C28" t="n">
-        <v>816.4639402180511</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>666.3473008057153</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>518.4342072233222</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>518.4342072233222</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>350.2588855431428</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6423,13 +6423,13 @@
         <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119728</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="X28" t="n">
-        <v>1387.841167119728</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.048587976198</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527472</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N30" t="n">
         <v>1669.996816116898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>333.9208692860377</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>333.9208692860377</v>
       </c>
       <c r="F34" t="n">
         <v>247.6350999123426</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="35">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028587</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>982.3063390367042</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>692.8891689997437</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>464.8996181017263</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="38">
@@ -7356,22 +7356,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7548,10 +7548,10 @@
         <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>18.74997006984665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836072</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>264.8805639299518</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>27.9440781400574</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.70425972623025</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>23.17774625772603</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>34.18404930688361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6880766107148</v>
       </c>
     </row>
     <row r="23">
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.821697689779768</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>273.5189229506738</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>59.99813634297304</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.760100492532558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>224.8519735000225</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>70.15417894162964</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
-        <v>787.793690575925</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001815</v>
+        <v>-257682.9018001818</v>
       </c>
       <c r="C6" t="n">
         <v>332284.9774143628</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143622</v>
+        <v>332284.9774143626</v>
       </c>
       <c r="E6" t="n">
-        <v>-91020.51673000315</v>
+        <v>-90143.38459625382</v>
       </c>
       <c r="F6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806426</v>
       </c>
       <c r="G6" t="n">
-        <v>434139.5197468925</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="H6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="I6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="J6" t="n">
-        <v>257716.3005543</v>
+        <v>258593.4326880491</v>
       </c>
       <c r="K6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="L6" t="n">
-        <v>434139.5197468926</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="M6" t="n">
-        <v>299338.5045130558</v>
+        <v>300215.6366468053</v>
       </c>
       <c r="N6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="O6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="P6" t="n">
-        <v>434139.5197468926</v>
+        <v>435016.6518806423</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>452.6387412370136</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>452.6387412370132</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240.0716518562657</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.460981998226</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>109.3628111481742</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4768554363356</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>338.73473764265</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>77.89973519326423</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>209.7028375347186</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.03727598905925</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6835682680293</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31627,16 +31627,16 @@
         <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,13 +31846,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>82.53814162109569</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>322.5108230010528</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31861,16 +31861,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318328</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,13 +32323,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>168.9387261055273</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>141.3402618185954</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>212.6301886270622</v>
+        <v>212.630188627062</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,16 +32955,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,13 +33271,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>413.8523816763275</v>
+        <v>413.8523816763272</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>406.1091714490773</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>670.511485261273</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>343.1107267700525</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>492.5097559335089</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>392.6063366508805</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>339.2539866652818</v>
+        <v>339.2539866652816</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,10 +36211,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>665.1184565086126</v>
+        <v>665.1184565086123</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
